--- a/biology/Botanique/Chenopodiaceae/Chenopodiaceae.xlsx
+++ b/biology/Botanique/Chenopodiaceae/Chenopodiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification classique la famille des Chenopodiaceae regroupe des plantes dicotylédones ; elle comprend 1 400 espèces réparties en une centaine de genres.
-Cette famille est invalide en classification phylogénétique et ses genres sont incorporés dans la famille Amaranthaceae[1].
+Cette famille est invalide en classification phylogénétique et ses genres sont incorporés dans la famille Amaranthaceae.
 Certains chénopodes ont été ou sont encore utilisés comme plante alimentaire.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Chenopodium, du grec χήν  / chèn, oie, et ποδιον / podion, « petit pied ; patte », en référence à la forme des inflorescences[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Chenopodium, du grec χήν  / chèn, oie, et ποδιον / podion, « petit pied ; patte », en référence à la forme des inflorescences.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont essentiellement des plantes herbacées (quelques arbustes, arbres et lianes) parfois à l'aspect succulent. Elles sont largement répandues.
 Présent en France, et comestibles, on peut citer les genres :
@@ -581,7 +597,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La centaine de genres des Chenopodiaceae :
 Acroglochin
